--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>提交时间</t>
   </si>
@@ -92,10 +92,36 @@
     <t>重新整理消息中间件的作业</t>
   </si>
   <si>
+    <t>2019 4.10 19:30-21:30</t>
+  </si>
+  <si>
+    <t>运行调试消息中间件的作业</t>
+  </si>
+  <si>
     <t>2019 4.11 19:30-21:30</t>
   </si>
   <si>
-    <t>学习Spring OXM书本内容</t>
+    <r>
+      <t>学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring OXM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书本内容</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -130,6 +156,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,45 +170,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,32 +245,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,17 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,14 +296,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,25 +308,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,121 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +499,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +537,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,30 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -558,166 +599,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,13 +1211,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.6" customWidth="1"/>
@@ -1219,6 +1245,14 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -120,45 +120,39 @@
     </r>
   </si>
   <si>
+    <t>上课内容</t>
+  </si>
+  <si>
+    <t>学习了数据库的链接</t>
+  </si>
+  <si>
+    <t>2019 4.9 19:30-21:30</t>
+  </si>
+  <si>
+    <t>重新整理消息中间件的作业</t>
+  </si>
+  <si>
+    <t>2019 4.11 19:30-21:30</t>
+  </si>
+  <si>
+    <t>学习Spring OXM书本内容</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
+      <t>2019 4.13 16</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>019.4.13-20:41</t>
+      <t>：00-18：00</t>
     </r>
   </si>
   <si>
-    <t>就看不见好吧就比较不哭不闹</t>
-  </si>
-  <si>
-    <t>上课内容</t>
-  </si>
-  <si>
-    <t>学习了数据库的链接</t>
-  </si>
-  <si>
-    <t>2019 4.9 19:30-21:30</t>
-  </si>
-  <si>
-    <t>重新整理消息中间件的作业</t>
-  </si>
-  <si>
-    <t>2019 4.11 19:30-21:30</t>
-  </si>
-  <si>
-    <t>学习Spring OXM书本内容</t>
+    <t>学习了SPringBOOT</t>
   </si>
 </sst>
 </file>
@@ -166,12 +160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,59 +187,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,95 +329,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -357,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,41 +533,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,26 +594,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +636,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,139 +648,140 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,9 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1166,22 +1146,22 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -1189,26 +1169,26 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1221,12 +1201,8 @@
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,19 +1231,19 @@
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>43557</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43565</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1279,13 +1255,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.625" customWidth="1"/>
@@ -1301,17 +1277,25 @@
     </row>
     <row r="2" ht="14.4" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -139,6 +139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>2019 4.13 16</t>
     </r>
     <r>
@@ -161,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,14 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,47 +208,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,23 +253,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,23 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +321,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -339,25 +345,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,157 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +541,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,43 +578,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -612,6 +609,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +642,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +654,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,13 +1261,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.625" customWidth="1"/>
@@ -1297,6 +1303,11 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="张国豪" sheetId="6" r:id="rId6"/>
     <sheet name="袁佳敏" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>提交时间</t>
   </si>
@@ -45,7 +45,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>019.4.10-9:50</t>
     </r>
@@ -74,7 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jdbc</t>
     </r>
@@ -85,7 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -94,7 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>019.4.13-20:40</t>
     </r>
@@ -114,7 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IOC</t>
     </r>
@@ -143,7 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2019 4.13 16</t>
     </r>
@@ -160,18 +160,20 @@
   <si>
     <t>学习了SPringBOOT</t>
   </si>
+  <si>
+    <t>了解了jdbc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13-12:30-14:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,344 +195,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -538,253 +228,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,58 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1144,25 +547,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:6">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +577,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="28.8" spans="1:3">
+    <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
+    <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:3">
+    <row r="5" spans="1:6" ht="14.5">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1206,29 +609,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:3">
+    <row r="6" spans="1:6" ht="14.5">
       <c r="A6" s="8"/>
       <c r="C6" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" spans="1:3" ht="14.5">
       <c r="A2" s="3">
         <v>43557</v>
       </c>
@@ -1244,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
+    <row r="3" spans="1:3" ht="14.5">
       <c r="A3" s="3">
         <v>43565</v>
       </c>
@@ -1253,27 +655,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="52.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" spans="1:3" ht="14.5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
+    <row r="3" spans="1:3" ht="14.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
+    <row r="4" spans="1:3" ht="14.5">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1305,29 +706,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>11111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,23 +736,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,23 +760,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,23 +784,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,8 +807,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="14.5">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>提交时间</t>
   </si>
@@ -166,6 +166,25 @@
   </si>
   <si>
     <t>4.13-12:30-14:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.14-8:00-10:00</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读了书本上spring Aop内容</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +810,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -815,6 +834,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="14.5">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9350" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="张国豪" sheetId="6" r:id="rId6"/>
     <sheet name="袁佳敏" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>提交时间</t>
   </si>
@@ -45,7 +45,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>019.4.10-9:50</t>
     </r>
@@ -74,7 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jdbc</t>
     </r>
@@ -85,7 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -94,7 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>019.4.13-20:40</t>
     </r>
@@ -114,7 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>IOC</t>
     </r>
@@ -143,7 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2019 4.13 16</t>
     </r>
@@ -161,15 +161,37 @@
     <t>学习了SPringBOOT</t>
   </si>
   <si>
+    <t>2019.4.10-19:25-21:12</t>
+  </si>
+  <si>
+    <t>学习上机内容</t>
+  </si>
+  <si>
+    <t>2019.4.11-19:58-22:01</t>
+  </si>
+  <si>
+    <t>学习gitbase</t>
+  </si>
+  <si>
+    <t>2019.4.16-20:00-22:30</t>
+  </si>
+  <si>
+    <t>学习上课内容</t>
+  </si>
+  <si>
+    <t>4.13-12:30-14:30</t>
+  </si>
+  <si>
     <t>了解了jdbc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.13-12:30-14:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -177,22 +199,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.14-8:00-10:00</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>阅读了书本上spring Aop内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,38 +234,362 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,13 +597,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,22 +856,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,90 +1205,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="27" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5">
-      <c r="A6" s="8"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,16 +1297,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
         <v>43557</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
         <v>43565</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -674,26 +1314,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="52.58203125" customWidth="1"/>
+    <col min="3" max="3" width="52.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -709,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -717,36 +1358,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>11111</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,22 +1462,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,46 +1487,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,25 +1511,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>提交时间</t>
   </si>
@@ -161,6 +161,9 @@
     <t>学习了SPringBOOT</t>
   </si>
   <si>
+    <t>给组长找了很多麻烦！</t>
+  </si>
+  <si>
     <t>2019.4.10-19:25-21:12</t>
   </si>
   <si>
@@ -213,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,39 +237,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +340,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,67 +385,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,12 +395,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,169 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +589,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +630,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,209 +686,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -856,10 +845,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,59 +1206,59 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="55" style="6" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="14.4" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="14.4" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="C6" s="7"/>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,9 +1276,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,16 +1286,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
+    <row r="2" ht="14.4" spans="1:3">
+      <c r="A2" s="3">
         <v>43557</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
+    <row r="3" ht="14.4" spans="1:3">
+      <c r="A3" s="3">
         <v>43565</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1324,17 +1313,17 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="14.4" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1358,17 +1347,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" ht="14.4" spans="1:3">
       <c r="A5">
         <v>11111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1382,13 +1374,13 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,26 +1406,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1451,9 +1443,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,9 +1468,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,9 +1493,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,20 +1503,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="14.4" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>提交时间</t>
   </si>
@@ -120,10 +120,72 @@
     </r>
   </si>
   <si>
-    <t>上课内容</t>
-  </si>
-  <si>
-    <t>学习了数据库的链接</t>
+    <t>2019/4/5 18.0-20.0</t>
+  </si>
+  <si>
+    <t>学习上课上内容</t>
+  </si>
+  <si>
+    <t>2019/4/6 13.0-15.0</t>
+  </si>
+  <si>
+    <t>学习git远程仓库与本地仓库的同步</t>
+  </si>
+  <si>
+    <t>2019/4/7 13.0-15.0</t>
+  </si>
+  <si>
+    <t>看了课本最后一章</t>
+  </si>
+  <si>
+    <t>2019/4/9 17.0-19.0</t>
+  </si>
+  <si>
+    <t>小组课上讨论项目分工</t>
+  </si>
+  <si>
+    <t>2019/4/10 17.0-19.0</t>
+  </si>
+  <si>
+    <t>对项目做了需求分析</t>
+  </si>
+  <si>
+    <t>2019/4/11 18.30-20.30</t>
+  </si>
+  <si>
+    <t>项目pom文件添加了jar包</t>
+  </si>
+  <si>
+    <r>
+      <t>2019/4/12 16.30-18.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习了解了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+  </si>
+  <si>
+    <t>学习了解了JDBC</t>
+  </si>
+  <si>
+    <t>2019/4/14 15.30-17.30</t>
+  </si>
+  <si>
+    <t>看了书上的IOC章节</t>
   </si>
   <si>
     <t>2019 4.9 19:30-21:30</t>
@@ -216,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,14 +305,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,123 +442,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -395,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,32 +651,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,22 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,17 +734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,153 +754,158 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,59 +1273,59 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="55" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="27" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="8"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11"/>
+      <c r="C6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1270,39 +1337,292 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C15" sqref="C15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="14.4" spans="1:3">
-      <c r="A2" s="3">
-        <v>43557</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:3">
-      <c r="A3" s="3">
-        <v>43565</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1313,17 +1633,17 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,36 +1651,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>11111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1378,9 +1698,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,26 +1726,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1443,9 +1763,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,9 +1788,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,13 +1809,13 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,20 +1823,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>提交时间</t>
   </si>
@@ -185,6 +185,45 @@
   </si>
   <si>
     <t>阅读了书本上spring Aop内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.15-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>:00-22:00</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了spring入门案例ioc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16-20:00-22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了spring入门案例DI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.17-20:00-22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单了解核心API</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.18-20:00-22:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -842,6 +881,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="14.5">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -13,7 +13,7 @@
     <sheet name="李凤琴" sheetId="4" r:id="rId4"/>
     <sheet name="燕广北" sheetId="5" r:id="rId5"/>
     <sheet name="张国豪" sheetId="6" r:id="rId6"/>
-    <sheet name="袁佳敏" sheetId="7" r:id="rId7"/>
+    <sheet name="袁嘉敏" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -852,7 +852,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>提交时间</t>
   </si>
@@ -120,12 +120,6 @@
     </r>
   </si>
   <si>
-    <t>上课内容</t>
-  </si>
-  <si>
-    <t>学习了数据库的链接</t>
-  </si>
-  <si>
     <t>2019 4.9 19:30-21:30</t>
   </si>
   <si>
@@ -225,6 +219,173 @@
   <si>
     <t>4.18-20:00-22:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.10-19:25-21:12</t>
+  </si>
+  <si>
+    <t>2019.4.11-19:58-22:01</t>
+  </si>
+  <si>
+    <t>2019.4.16-20:00-22:30</t>
+  </si>
+  <si>
+    <r>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免安装版，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my_default.ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件无效的解决办法及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>heidisql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装与下载</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数据库的连接及阅读书本第二十章单元测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习上机内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习gitbase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习上课内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/5 18.0-20.0</t>
+  </si>
+  <si>
+    <t>2019/4/6 13.0-15.0</t>
+  </si>
+  <si>
+    <t>2019/4/7 13.0-15.0</t>
+  </si>
+  <si>
+    <t>2019/4/9 17.0-19.0</t>
+  </si>
+  <si>
+    <t>2019/4/10 17.0-19.0</t>
+  </si>
+  <si>
+    <t>2019/4/11 18.30-20.30</t>
+  </si>
+  <si>
+    <r>
+      <t>2019/4/12 16.30-18.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习了解了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+  </si>
+  <si>
+    <t>2019/4/14 15.30-17.30</t>
+  </si>
+  <si>
+    <t>看了课本最后一章</t>
+  </si>
+  <si>
+    <t>学习上课上内容</t>
+  </si>
+  <si>
+    <t>学习git远程仓库与本地仓库的同步</t>
+  </si>
+  <si>
+    <t>小组课上讨论项目分工</t>
+  </si>
+  <si>
+    <t>对项目做了需求分析</t>
+  </si>
+  <si>
+    <t>项目pom文件添加了jar包</t>
+  </si>
+  <si>
+    <t>学习了解了JDBC</t>
+  </si>
+  <si>
+    <t>看了书上的IOC章节</t>
   </si>
 </sst>
 </file>
@@ -290,11 +451,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,6 +472,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,16 +783,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -636,40 +800,40 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5">
-      <c r="A6" s="8"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -680,15 +844,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:7" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,23 +860,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="3">
-        <v>43557</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="3">
-        <v>43565</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.5">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5">
+      <c r="A5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5">
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,7 +993,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -742,26 +1012,26 @@
     </row>
     <row r="2" spans="1:3" ht="14.5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -777,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -791,6 +1061,46 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.5">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -866,48 +1176,48 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="14.5">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:3" ht="14.5">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9350" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="张国豪" sheetId="6" r:id="rId6"/>
     <sheet name="袁嘉敏" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>提交时间</t>
   </si>
@@ -45,7 +45,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -54,7 +54,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>019.4.10-9:50</t>
     </r>
@@ -74,7 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jdbc</t>
     </r>
@@ -85,7 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -94,7 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>019.4.13-20:40</t>
     </r>
@@ -114,12 +114,86 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>IOC</t>
     </r>
   </si>
   <si>
+    <t>2019/4/5 18.0-20.0</t>
+  </si>
+  <si>
+    <t>学习上课上内容</t>
+  </si>
+  <si>
+    <t>2019/4/6 13.0-15.0</t>
+  </si>
+  <si>
+    <t>学习git远程仓库与本地仓库的同步</t>
+  </si>
+  <si>
+    <t>2019/4/7 13.0-15.0</t>
+  </si>
+  <si>
+    <t>看了课本最后一章</t>
+  </si>
+  <si>
+    <t>2019/4/9 17.0-19.0</t>
+  </si>
+  <si>
+    <t>小组课上讨论项目分工</t>
+  </si>
+  <si>
+    <t>2019/4/10 17.0-19.0</t>
+  </si>
+  <si>
+    <t>对项目做了需求分析</t>
+  </si>
+  <si>
+    <t>2019/4/11 18.30-20.30</t>
+  </si>
+  <si>
+    <t>项目pom文件添加了jar包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019/4/12 16.30-18.30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习了解了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JDBC</t>
+    </r>
+  </si>
+  <si>
+    <t>学习了解了JDBC</t>
+  </si>
+  <si>
+    <t>2019/4/14 15.30-17.30</t>
+  </si>
+  <si>
+    <t>看了书上的IOC章节</t>
+  </si>
+  <si>
     <t>2019 4.9 19:30-21:30</t>
   </si>
   <si>
@@ -137,7 +211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2019 4.13 16</t>
     </r>
@@ -152,18 +226,146 @@
     </r>
   </si>
   <si>
-    <t>学习了SPringBOOT</t>
+    <t>学习了SPringBOOT入门</t>
+  </si>
+  <si>
+    <t>2019 4.15 19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习数据库的连接</t>
+  </si>
+  <si>
+    <t>2019 4.20 19:00-21:00</t>
+  </si>
+  <si>
+    <r>
+      <t>继续学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Spring Boot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的相关内容</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免安装版，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>my_default.ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件无效的解决办法及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>heidisql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装与下载</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.4.10-19:25-21:12</t>
+  </si>
+  <si>
+    <t>学习上机内容</t>
+  </si>
+  <si>
+    <t>2019.4.11-19:58-22:01</t>
+  </si>
+  <si>
+    <t>学习gitbase</t>
+  </si>
+  <si>
+    <t>2019.4.16-20:00-22:30</t>
+  </si>
+  <si>
+    <t>学习上课内容</t>
+  </si>
+  <si>
+    <t>4.13-12:30-14:30</t>
   </si>
   <si>
     <t>了解了jdbc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.13-12:30-14:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -171,18 +373,22 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.14-8:00-10:00</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>阅读了书本上spring Aop内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.15-20</t>
     </r>
     <r>
@@ -190,209 +396,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00-22:00</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习了spring入门案例ioc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.16-20:00-22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习了spring入门案例DI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.17-20:00-22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简单了解核心API</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.18-20:00-22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.4.10-19:25-21:12</t>
-  </si>
-  <si>
-    <t>2019.4.11-19:58-22:01</t>
-  </si>
-  <si>
-    <t>2019.4.16-20:00-22:30</t>
-  </si>
-  <si>
-    <r>
-      <t>windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Mysql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>免安装版，修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>my_default.ini</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置文件无效的解决办法及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>heidisql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装与下载</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习数据库的连接及阅读书本第二十章单元测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习上机内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习gitbase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习上课内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/5 18.0-20.0</t>
-  </si>
-  <si>
-    <t>2019/4/6 13.0-15.0</t>
-  </si>
-  <si>
-    <t>2019/4/7 13.0-15.0</t>
-  </si>
-  <si>
-    <t>2019/4/9 17.0-19.0</t>
-  </si>
-  <si>
-    <t>2019/4/10 17.0-19.0</t>
-  </si>
-  <si>
-    <t>2019/4/11 18.30-20.30</t>
-  </si>
-  <si>
-    <r>
-      <t>2019/4/12 16.30-18.30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习了解了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>JDBC</t>
-    </r>
-  </si>
-  <si>
-    <t>2019/4/14 15.30-17.30</t>
-  </si>
-  <si>
-    <t>看了课本最后一章</t>
-  </si>
-  <si>
-    <t>学习上课上内容</t>
-  </si>
-  <si>
-    <t>学习git远程仓库与本地仓库的同步</t>
-  </si>
-  <si>
-    <t>小组课上讨论项目分工</t>
-  </si>
-  <si>
-    <t>对项目做了需求分析</t>
-  </si>
-  <si>
-    <t>项目pom文件添加了jar包</t>
-  </si>
-  <si>
-    <t>学习了解了JDBC</t>
-  </si>
-  <si>
-    <t>看了书上的IOC章节</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,38 +446,362 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -447,40 +809,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -769,90 +1419,91 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="55" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.4" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="14.4" spans="1:3">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5">
-      <c r="A6" s="7"/>
-      <c r="C6" s="4"/>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="C6" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,149 +1511,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5">
-      <c r="A3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5">
-      <c r="A8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5">
-      <c r="A9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+    <row r="2" ht="14.4" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="14.4" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="14.4" spans="1:7">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="14.4" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:7">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="14.4" spans="1:7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="52.58203125" customWidth="1"/>
+    <col min="3" max="3" width="52.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,52 +1656,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
+    <row r="2" ht="14.4" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>11111</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,63 +1721,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
+    <row r="2" ht="14.4" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,22 +1787,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,22 +1812,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" ht="14.4" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,54 +1836,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
+    <row r="2" ht="14.4" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/EBManagement/doc/log.xlsx
+++ b/EBManagement/doc/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>提交时间</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>继续学习</t>
     </r>
     <r>
@@ -259,6 +265,12 @@
       </rPr>
       <t>的相关内容</t>
     </r>
+  </si>
+  <si>
+    <t>2019 4.23 20:00-22:00</t>
+  </si>
+  <si>
+    <t>学习IOC概述以及相关的java知识</t>
   </si>
   <si>
     <r>
@@ -425,12 +437,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,20 +458,68 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,38 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,8 +554,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,69 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,187 +616,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +807,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -821,17 +847,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,32 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,170 +893,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,10 +1068,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,16 +1431,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="55" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -1450,40 +1448,40 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1512,102 +1510,102 @@
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="14.4" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="14.4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="14.4" spans="1:7">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="14.4" spans="1:7">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="14.4" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="14.4" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="14.4" spans="1:7">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1636,13 +1634,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="3" max="3" width="52.5833333333333" customWidth="1"/>
@@ -1673,7 +1671,7 @@
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1694,6 +1692,14 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="1:3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1726,39 +1732,39 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1838,47 +1844,47 @@
     </row>
     <row r="2" ht="14.4" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
